--- a/CleanData/Clean_Public health unit.xlsx
+++ b/CleanData/Clean_Public health unit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>PHU_ID</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Reporting_PHU_Longitude</t>
+  </si>
+  <si>
+    <t>Create day</t>
+  </si>
+  <si>
+    <t>Update day</t>
   </si>
   <si>
     <t>Middlesex-London Health Unit</t>
@@ -554,6 +560,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -606,11 +615,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,13 +915,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,25 +946,31 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>2244</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2">
         <v>4299571559</v>
@@ -962,25 +978,31 @@
       <c r="H2">
         <v>-814569832</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2236</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G3">
         <v>4351209709</v>
@@ -988,25 +1010,31 @@
       <c r="H3">
         <v>-7989050809</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J3" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3895</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G4">
         <v>4372584482</v>
@@ -1014,25 +1042,31 @@
       <c r="H4">
         <v>-7938955775</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>5183</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G5">
         <v>4360051407</v>
@@ -1040,25 +1074,31 @@
       <c r="H5">
         <v>-8128148453</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2266</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G6">
         <v>4385364154</v>
@@ -1066,25 +1106,31 @@
       <c r="H6">
         <v>-8037208498</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2263</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G7">
         <v>4765305799</v>
@@ -1092,25 +1138,31 @@
       <c r="H7">
         <v>-8021524027</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2262</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8">
         <v>5239724709</v>
@@ -1118,25 +1170,31 @@
       <c r="H8">
         <v>-8853140488</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J8" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>2253</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G9">
         <v>4376161337</v>
@@ -1144,25 +1202,31 @@
       <c r="H9">
         <v>-7981357092</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2261</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G10">
         <v>4784651445</v>
@@ -1170,25 +1234,31 @@
       <c r="H10">
         <v>-8304716571</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>2230</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G11">
         <v>4403514967</v>
@@ -1196,25 +1266,31 @@
       <c r="H11">
         <v>-7888249823</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>2237</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G12">
         <v>4325324313</v>
@@ -1222,25 +1298,31 @@
       <c r="H12">
         <v>-7995846342</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>2268</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G13">
         <v>4215642327</v>
@@ -1248,25 +1330,31 @@
       <c r="H13">
         <v>-8277753253</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>2265</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G14">
         <v>4346283583</v>
@@ -1274,25 +1362,31 @@
       <c r="H14">
         <v>-8053867571</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J14" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>2260</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G15">
         <v>4477775463</v>
@@ -1300,25 +1394,31 @@
       <c r="H15">
         <v>-7954577339</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>4913</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G16">
         <v>4298933013</v>
@@ -1326,25 +1426,31 @@
       <c r="H16">
         <v>-8078600768</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>2226</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>475967893</v>
@@ -1352,25 +1458,31 @@
       <c r="H17">
         <v>-8441246863</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J17" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>2243</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G18">
         <v>4486378244</v>
@@ -1378,25 +1490,31 @@
       <c r="H18">
         <v>-7611805844</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J18" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>2238</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G19">
         <v>4463116714</v>
@@ -1404,25 +1522,31 @@
       <c r="H19">
         <v>-7755186057</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J19" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>2247</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G20">
         <v>4608538431</v>
@@ -1430,25 +1554,31 @@
       <c r="H20">
         <v>-7968682329</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J20" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>2270</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G21">
         <v>4407497664</v>
@@ -1456,25 +1586,31 @@
       <c r="H21">
         <v>-7942821218</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J21" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>2249</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G22">
         <v>5149480889</v>
@@ -1482,25 +1618,31 @@
       <c r="H22">
         <v>-9255345583</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J22" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>2255</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G23">
         <v>4453667727</v>
@@ -1508,25 +1650,31 @@
       <c r="H23">
         <v>-7821233161</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J23" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>2233</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G24">
         <v>4440827896</v>
@@ -1534,25 +1682,31 @@
       <c r="H24">
         <v>-8100861061</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J24" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>2241</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G25">
         <v>4467675443</v>
@@ -1560,25 +1714,31 @@
       <c r="H25">
         <v>-7688425424</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J25" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>2256</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G26">
         <v>5185310322</v>
@@ -1586,25 +1746,31 @@
       <c r="H26">
         <v>-8351577643</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J26" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>2257</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G27">
         <v>4580633371</v>
@@ -1612,25 +1778,31 @@
       <c r="H27">
         <v>-777769518</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>2251</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G28">
         <v>4517957839</v>
@@ -1638,25 +1810,31 @@
       <c r="H28">
         <v>-7579995195</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J28" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>2227</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G29">
         <v>4312034629</v>
@@ -1664,25 +1842,31 @@
       <c r="H29">
         <v>-8029538881</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J29" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>2234</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G30">
         <v>4285444671</v>
@@ -1690,25 +1874,31 @@
       <c r="H30">
         <v>-8017803538</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>2235</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G31">
         <v>4467123794</v>
@@ -1716,25 +1906,31 @@
       <c r="H31">
         <v>-7889722192</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J31" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>2246</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G32">
         <v>43045446</v>
@@ -1742,25 +1938,31 @@
       <c r="H32">
         <v>-7931367036</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J32" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>2258</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G33">
         <v>452730605</v>
@@ -1768,25 +1970,31 @@
       <c r="H33">
         <v>-7495257873</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J33" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>2242</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G34">
         <v>4288627513</v>
@@ -1794,31 +2002,43 @@
       <c r="H34">
         <v>-820983725</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J34" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>2240</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G35">
         <v>4241925325</v>
       </c>
       <c r="H35">
         <v>-8212808769</v>
+      </c>
+      <c r="I35" s="2">
+        <v>44896</v>
+      </c>
+      <c r="J35" s="2">
+        <v>44896</v>
       </c>
     </row>
   </sheetData>

--- a/CleanData/Clean_Public health unit.xlsx
+++ b/CleanData/Clean_Public health unit.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\BI_DATH\CleanData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FB0EB7-E14E-4D58-8D07-34B7942B63DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -559,11 +565,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +633,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -673,7 +687,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,9 +719,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,6 +771,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -914,14 +964,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2244</v>
       </c>
@@ -985,7 +1046,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2236</v>
       </c>
@@ -1017,7 +1078,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3895</v>
       </c>
@@ -1049,7 +1110,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5183</v>
       </c>
@@ -1081,7 +1142,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2266</v>
       </c>
@@ -1113,7 +1174,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2263</v>
       </c>
@@ -1145,7 +1206,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2262</v>
       </c>
@@ -1177,7 +1238,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2253</v>
       </c>
@@ -1209,7 +1270,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2261</v>
       </c>
@@ -1241,7 +1302,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2230</v>
       </c>
@@ -1273,7 +1334,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2237</v>
       </c>
@@ -1305,7 +1366,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2268</v>
       </c>
@@ -1337,7 +1398,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2265</v>
       </c>
@@ -1369,7 +1430,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2260</v>
       </c>
@@ -1401,7 +1462,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4913</v>
       </c>
@@ -1433,7 +1494,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2226</v>
       </c>
@@ -1465,7 +1526,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2243</v>
       </c>
@@ -1497,7 +1558,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2238</v>
       </c>
@@ -1529,7 +1590,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2247</v>
       </c>
@@ -1561,7 +1622,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2270</v>
       </c>
@@ -1593,7 +1654,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2249</v>
       </c>
@@ -1625,7 +1686,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2255</v>
       </c>
@@ -1657,7 +1718,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2233</v>
       </c>
@@ -1689,7 +1750,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2241</v>
       </c>
@@ -1721,7 +1782,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2256</v>
       </c>
@@ -1753,7 +1814,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2257</v>
       </c>
@@ -1785,7 +1846,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2251</v>
       </c>
@@ -1817,7 +1878,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2227</v>
       </c>
@@ -1849,7 +1910,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2234</v>
       </c>
@@ -1881,7 +1942,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2235</v>
       </c>
@@ -1913,7 +1974,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2246</v>
       </c>
@@ -1945,7 +2006,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2258</v>
       </c>
@@ -1977,7 +2038,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2242</v>
       </c>
@@ -2009,7 +2070,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2240</v>
       </c>

--- a/CleanData/Clean_Public health unit.xlsx
+++ b/CleanData/Clean_Public health unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\BI_DATH\CleanData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FB0EB7-E14E-4D58-8D07-34B7942B63DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D48ED1-102F-4325-A638-3619188E11BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4824" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>PHU_ID</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>www.ckphu.com</t>
+  </si>
+  <si>
+    <t>_Status</t>
   </si>
 </sst>
 </file>
@@ -965,24 +968,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1007,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2244</v>
       </c>
@@ -1040,13 +1037,16 @@
         <v>-814569832</v>
       </c>
       <c r="I2" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J2" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2236</v>
       </c>
@@ -1072,13 +1072,16 @@
         <v>-7989050809</v>
       </c>
       <c r="I3" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J3" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3895</v>
       </c>
@@ -1104,13 +1107,16 @@
         <v>-7938955775</v>
       </c>
       <c r="I4" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J4" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5183</v>
       </c>
@@ -1136,13 +1142,16 @@
         <v>-8128148453</v>
       </c>
       <c r="I5" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J5" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2266</v>
       </c>
@@ -1168,13 +1177,16 @@
         <v>-8037208498</v>
       </c>
       <c r="I6" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J6" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2263</v>
       </c>
@@ -1200,13 +1212,16 @@
         <v>-8021524027</v>
       </c>
       <c r="I7" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J7" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2262</v>
       </c>
@@ -1232,13 +1247,16 @@
         <v>-8853140488</v>
       </c>
       <c r="I8" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J8" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2253</v>
       </c>
@@ -1264,13 +1282,16 @@
         <v>-7981357092</v>
       </c>
       <c r="I9" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J9" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2261</v>
       </c>
@@ -1296,13 +1317,16 @@
         <v>-8304716571</v>
       </c>
       <c r="I10" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J10" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2230</v>
       </c>
@@ -1328,13 +1352,16 @@
         <v>-7888249823</v>
       </c>
       <c r="I11" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J11" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2237</v>
       </c>
@@ -1360,13 +1387,16 @@
         <v>-7995846342</v>
       </c>
       <c r="I12" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J12" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2268</v>
       </c>
@@ -1392,13 +1422,16 @@
         <v>-8277753253</v>
       </c>
       <c r="I13" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J13" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2265</v>
       </c>
@@ -1424,13 +1457,16 @@
         <v>-8053867571</v>
       </c>
       <c r="I14" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J14" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2260</v>
       </c>
@@ -1456,13 +1492,16 @@
         <v>-7954577339</v>
       </c>
       <c r="I15" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J15" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4913</v>
       </c>
@@ -1488,13 +1527,16 @@
         <v>-8078600768</v>
       </c>
       <c r="I16" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J16" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2226</v>
       </c>
@@ -1520,13 +1562,16 @@
         <v>-8441246863</v>
       </c>
       <c r="I17" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J17" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2243</v>
       </c>
@@ -1552,13 +1597,16 @@
         <v>-7611805844</v>
       </c>
       <c r="I18" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J18" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2238</v>
       </c>
@@ -1584,13 +1632,16 @@
         <v>-7755186057</v>
       </c>
       <c r="I19" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J19" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2247</v>
       </c>
@@ -1616,13 +1667,16 @@
         <v>-7968682329</v>
       </c>
       <c r="I20" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J20" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2270</v>
       </c>
@@ -1648,13 +1702,16 @@
         <v>-7942821218</v>
       </c>
       <c r="I21" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J21" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2249</v>
       </c>
@@ -1680,13 +1737,16 @@
         <v>-9255345583</v>
       </c>
       <c r="I22" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J22" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2255</v>
       </c>
@@ -1712,13 +1772,16 @@
         <v>-7821233161</v>
       </c>
       <c r="I23" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J23" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2233</v>
       </c>
@@ -1744,13 +1807,16 @@
         <v>-8100861061</v>
       </c>
       <c r="I24" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J24" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2241</v>
       </c>
@@ -1776,13 +1842,16 @@
         <v>-7688425424</v>
       </c>
       <c r="I25" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J25" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2256</v>
       </c>
@@ -1808,13 +1877,16 @@
         <v>-8351577643</v>
       </c>
       <c r="I26" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J26" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2257</v>
       </c>
@@ -1840,13 +1912,16 @@
         <v>-777769518</v>
       </c>
       <c r="I27" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J27" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2251</v>
       </c>
@@ -1872,13 +1947,16 @@
         <v>-7579995195</v>
       </c>
       <c r="I28" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J28" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2227</v>
       </c>
@@ -1904,13 +1982,16 @@
         <v>-8029538881</v>
       </c>
       <c r="I29" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J29" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2234</v>
       </c>
@@ -1936,13 +2017,16 @@
         <v>-8017803538</v>
       </c>
       <c r="I30" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J30" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2235</v>
       </c>
@@ -1968,13 +2052,16 @@
         <v>-7889722192</v>
       </c>
       <c r="I31" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J31" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2246</v>
       </c>
@@ -2000,13 +2087,16 @@
         <v>-7931367036</v>
       </c>
       <c r="I32" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J32" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2258</v>
       </c>
@@ -2032,13 +2122,16 @@
         <v>-7495257873</v>
       </c>
       <c r="I33" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J33" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2242</v>
       </c>
@@ -2064,13 +2157,16 @@
         <v>-820983725</v>
       </c>
       <c r="I34" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J34" s="2">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44902</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2240</v>
       </c>
@@ -2096,10 +2192,13 @@
         <v>-8212808769</v>
       </c>
       <c r="I35" s="2">
-        <v>44896</v>
+        <v>44902</v>
       </c>
       <c r="J35" s="2">
-        <v>44896</v>
+        <v>44902</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CleanData/Clean_Public health unit.xlsx
+++ b/CleanData/Clean_Public health unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\BI_DATH\CleanData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D48ED1-102F-4325-A638-3619188E11BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EB95AC-E984-488C-8DBE-BB5C6F2D5623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Huron Perth District Health Unit</t>
   </si>
   <si>
-    <t>Wellington-Dufferin-Guelph Public Health</t>
-  </si>
-  <si>
     <t>Timiskaming Health Unit</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Peel Public Health</t>
   </si>
   <si>
-    <t>Sudbury &amp; District Health Unit</t>
-  </si>
-  <si>
     <t>Durham Region Health Department</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>Grey Bruce Health Unit</t>
   </si>
   <si>
-    <t>Kingston, Frontenac and Lennox &amp; Addington Public Health</t>
-  </si>
-  <si>
     <t>Porcupine Health Unit</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>Eastern Ontario Health Unit</t>
   </si>
   <si>
-    <t>Lambton Public Health</t>
-  </si>
-  <si>
     <t>Chatham-Kent Health Unit</t>
   </si>
   <si>
@@ -563,6 +551,18 @@
   </si>
   <si>
     <t>_Status</t>
+  </si>
+  <si>
+    <t>Kingston, Frontenac and Lennox &amp; Addington Public Health Unit</t>
+  </si>
+  <si>
+    <t>Lambton Public Health Unit</t>
+  </si>
+  <si>
+    <t>Sudbury and District Health Unit</t>
+  </si>
+  <si>
+    <t>Wellington-Dufferin-Guelph Public Health Unit</t>
   </si>
 </sst>
 </file>
@@ -970,11 +970,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="49.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1008,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1019,16 +1022,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G2">
         <v>4299571559</v>
@@ -1054,16 +1057,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G3">
         <v>4351209709</v>
@@ -1089,16 +1092,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G4">
         <v>4372584482</v>
@@ -1124,16 +1127,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G5">
         <v>4360051407</v>
@@ -1156,19 +1159,19 @@
         <v>2266</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G6">
         <v>4385364154</v>
@@ -1191,19 +1194,19 @@
         <v>2263</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G7">
         <v>4765305799</v>
@@ -1226,19 +1229,19 @@
         <v>2262</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G8">
         <v>5239724709</v>
@@ -1261,19 +1264,19 @@
         <v>2253</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G9">
         <v>4376161337</v>
@@ -1296,19 +1299,19 @@
         <v>2261</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G10">
         <v>4784651445</v>
@@ -1331,19 +1334,19 @@
         <v>2230</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G11">
         <v>4403514967</v>
@@ -1366,19 +1369,19 @@
         <v>2237</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G12">
         <v>4325324313</v>
@@ -1401,19 +1404,19 @@
         <v>2268</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G13">
         <v>4215642327</v>
@@ -1436,19 +1439,19 @@
         <v>2265</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G14">
         <v>4346283583</v>
@@ -1471,19 +1474,19 @@
         <v>2260</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G15">
         <v>4477775463</v>
@@ -1506,19 +1509,19 @@
         <v>4913</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G16">
         <v>4298933013</v>
@@ -1541,19 +1544,19 @@
         <v>2226</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G17">
         <v>475967893</v>
@@ -1576,19 +1579,19 @@
         <v>2243</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G18">
         <v>4486378244</v>
@@ -1611,19 +1614,19 @@
         <v>2238</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G19">
         <v>4463116714</v>
@@ -1646,19 +1649,19 @@
         <v>2247</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G20">
         <v>4608538431</v>
@@ -1681,19 +1684,19 @@
         <v>2270</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G21">
         <v>4407497664</v>
@@ -1716,19 +1719,19 @@
         <v>2249</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G22">
         <v>5149480889</v>
@@ -1751,19 +1754,19 @@
         <v>2255</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G23">
         <v>4453667727</v>
@@ -1786,19 +1789,19 @@
         <v>2233</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G24">
         <v>4440827896</v>
@@ -1821,19 +1824,19 @@
         <v>2241</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G25">
         <v>4467675443</v>
@@ -1856,19 +1859,19 @@
         <v>2256</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G26">
         <v>5185310322</v>
@@ -1891,19 +1894,19 @@
         <v>2257</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G27">
         <v>4580633371</v>
@@ -1926,19 +1929,19 @@
         <v>2251</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G28">
         <v>4517957839</v>
@@ -1961,19 +1964,19 @@
         <v>2227</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G29">
         <v>4312034629</v>
@@ -1996,19 +1999,19 @@
         <v>2234</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G30">
         <v>4285444671</v>
@@ -2031,19 +2034,19 @@
         <v>2235</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G31">
         <v>4467123794</v>
@@ -2066,19 +2069,19 @@
         <v>2246</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G32">
         <v>43045446</v>
@@ -2101,19 +2104,19 @@
         <v>2258</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G33">
         <v>452730605</v>
@@ -2136,19 +2139,19 @@
         <v>2242</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G34">
         <v>4288627513</v>
@@ -2171,19 +2174,19 @@
         <v>2240</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G35">
         <v>4241925325</v>
